--- a/result/problem_1/erf/result_6.xlsx
+++ b/result/problem_1/erf/result_6.xlsx
@@ -473,10 +473,10 @@
         <v>11369598</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E2" t="n">
         <v>1350</v>
@@ -496,10 +496,10 @@
         <v>11371681</v>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E3" t="n">
         <v>1350</v>
@@ -519,10 +519,10 @@
         <v>11371682</v>
       </c>
       <c r="C4" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D4" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="E4" t="n">
         <v>1350</v>
@@ -542,10 +542,10 @@
         <v>11371697</v>
       </c>
       <c r="C5" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D5" t="n">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E5" t="n">
         <v>1350</v>
@@ -565,10 +565,10 @@
         <v>11371708</v>
       </c>
       <c r="C6" t="n">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="D6" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="E6" t="n">
         <v>1350</v>
@@ -588,10 +588,10 @@
         <v>11371823</v>
       </c>
       <c r="C7" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="D7" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="E7" t="n">
         <v>1350</v>
@@ -611,10 +611,10 @@
         <v>11372079</v>
       </c>
       <c r="C8" t="n">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="D8" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="E8" t="n">
         <v>1350</v>
@@ -933,10 +933,10 @@
         <v>11390913</v>
       </c>
       <c r="C22" t="n">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D22" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="E22" t="n">
         <v>1350</v>
@@ -956,10 +956,10 @@
         <v>11413539</v>
       </c>
       <c r="C23" t="n">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="D23" t="n">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="E23" t="n">
         <v>1350</v>
@@ -1347,10 +1347,10 @@
         <v>11422032</v>
       </c>
       <c r="C40" t="n">
-        <v>3547</v>
+        <v>3580</v>
       </c>
       <c r="D40" t="n">
-        <v>3580</v>
+        <v>3613</v>
       </c>
       <c r="E40" t="n">
         <v>18000</v>
@@ -1373,7 +1373,7 @@
         <v>3514</v>
       </c>
       <c r="D41" t="n">
-        <v>3613</v>
+        <v>3580</v>
       </c>
       <c r="E41" t="n">
         <v>18000</v>
@@ -1531,10 +1531,10 @@
         <v>11428064</v>
       </c>
       <c r="C48" t="n">
-        <v>2458</v>
+        <v>2524</v>
       </c>
       <c r="D48" t="n">
-        <v>2491</v>
+        <v>2557</v>
       </c>
       <c r="E48" t="n">
         <v>13500</v>
@@ -1554,10 +1554,10 @@
         <v>11428065</v>
       </c>
       <c r="C49" t="n">
-        <v>2491</v>
+        <v>2557</v>
       </c>
       <c r="D49" t="n">
-        <v>2524</v>
+        <v>2590</v>
       </c>
       <c r="E49" t="n">
         <v>13500</v>
@@ -1577,10 +1577,10 @@
         <v>11429209</v>
       </c>
       <c r="C50" t="n">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="D50" t="n">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="E50" t="n">
         <v>1350</v>
@@ -1600,10 +1600,10 @@
         <v>11430962</v>
       </c>
       <c r="C51" t="n">
-        <v>2524</v>
+        <v>2590</v>
       </c>
       <c r="D51" t="n">
-        <v>2557</v>
+        <v>2623</v>
       </c>
       <c r="E51" t="n">
         <v>13500</v>
@@ -1623,10 +1623,10 @@
         <v>11431053</v>
       </c>
       <c r="C52" t="n">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="D52" t="n">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E52" t="n">
         <v>1350</v>
@@ -1646,10 +1646,10 @@
         <v>11431788</v>
       </c>
       <c r="C53" t="n">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="D53" t="n">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="E53" t="n">
         <v>1350</v>
@@ -1669,10 +1669,10 @@
         <v>11432174</v>
       </c>
       <c r="C54" t="n">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="D54" t="n">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="E54" t="n">
         <v>1350</v>
@@ -1692,10 +1692,10 @@
         <v>11432175</v>
       </c>
       <c r="C55" t="n">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="D55" t="n">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="E55" t="n">
         <v>1350</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>528</v>
+        <v>66</v>
       </c>
       <c r="E56" t="n">
         <v>1350</v>
@@ -1784,10 +1784,10 @@
         <v>11478870</v>
       </c>
       <c r="C59" t="n">
-        <v>2557</v>
+        <v>2623</v>
       </c>
       <c r="D59" t="n">
-        <v>2590</v>
+        <v>2656</v>
       </c>
       <c r="E59" t="n">
         <v>13500</v>
@@ -1807,10 +1807,10 @@
         <v>11478872</v>
       </c>
       <c r="C60" t="n">
-        <v>2590</v>
+        <v>2656</v>
       </c>
       <c r="D60" t="n">
-        <v>2623</v>
+        <v>2689</v>
       </c>
       <c r="E60" t="n">
         <v>13500</v>
@@ -1830,10 +1830,10 @@
         <v>11478873</v>
       </c>
       <c r="C61" t="n">
-        <v>2623</v>
+        <v>2689</v>
       </c>
       <c r="D61" t="n">
-        <v>2656</v>
+        <v>2722</v>
       </c>
       <c r="E61" t="n">
         <v>13500</v>
@@ -2014,10 +2014,10 @@
         <v>11490682</v>
       </c>
       <c r="C69" t="n">
-        <v>2656</v>
+        <v>2722</v>
       </c>
       <c r="D69" t="n">
-        <v>2689</v>
+        <v>2755</v>
       </c>
       <c r="E69" t="n">
         <v>13500</v>
@@ -2037,10 +2037,10 @@
         <v>11492651</v>
       </c>
       <c r="C70" t="n">
-        <v>2689</v>
+        <v>2755</v>
       </c>
       <c r="D70" t="n">
-        <v>2722</v>
+        <v>2788</v>
       </c>
       <c r="E70" t="n">
         <v>13500</v>
@@ -2083,10 +2083,10 @@
         <v>11497608</v>
       </c>
       <c r="C72" t="n">
-        <v>2722</v>
+        <v>2788</v>
       </c>
       <c r="D72" t="n">
-        <v>2755</v>
+        <v>2821</v>
       </c>
       <c r="E72" t="n">
         <v>13500</v>
@@ -2106,10 +2106,10 @@
         <v>11497609</v>
       </c>
       <c r="C73" t="n">
-        <v>2755</v>
+        <v>2821</v>
       </c>
       <c r="D73" t="n">
-        <v>2788</v>
+        <v>2854</v>
       </c>
       <c r="E73" t="n">
         <v>13500</v>
@@ -2129,10 +2129,10 @@
         <v>11497610</v>
       </c>
       <c r="C74" t="n">
-        <v>2788</v>
+        <v>2854</v>
       </c>
       <c r="D74" t="n">
-        <v>2821</v>
+        <v>2887</v>
       </c>
       <c r="E74" t="n">
         <v>13500</v>
@@ -2152,10 +2152,10 @@
         <v>11497611</v>
       </c>
       <c r="C75" t="n">
-        <v>2821</v>
+        <v>2887</v>
       </c>
       <c r="D75" t="n">
-        <v>2854</v>
+        <v>2920</v>
       </c>
       <c r="E75" t="n">
         <v>13500</v>
@@ -2175,10 +2175,10 @@
         <v>11497612</v>
       </c>
       <c r="C76" t="n">
-        <v>2854</v>
+        <v>2920</v>
       </c>
       <c r="D76" t="n">
-        <v>2887</v>
+        <v>2953</v>
       </c>
       <c r="E76" t="n">
         <v>13500</v>
@@ -2198,10 +2198,10 @@
         <v>11497634</v>
       </c>
       <c r="C77" t="n">
-        <v>2887</v>
+        <v>2953</v>
       </c>
       <c r="D77" t="n">
-        <v>2920</v>
+        <v>2986</v>
       </c>
       <c r="E77" t="n">
         <v>13500</v>
@@ -2221,10 +2221,10 @@
         <v>11497635</v>
       </c>
       <c r="C78" t="n">
-        <v>2920</v>
+        <v>2986</v>
       </c>
       <c r="D78" t="n">
-        <v>2953</v>
+        <v>3019</v>
       </c>
       <c r="E78" t="n">
         <v>13500</v>
@@ -2244,10 +2244,10 @@
         <v>11497636</v>
       </c>
       <c r="C79" t="n">
-        <v>2953</v>
+        <v>3019</v>
       </c>
       <c r="D79" t="n">
-        <v>2986</v>
+        <v>3052</v>
       </c>
       <c r="E79" t="n">
         <v>13500</v>
@@ -2267,10 +2267,10 @@
         <v>11497637</v>
       </c>
       <c r="C80" t="n">
-        <v>2986</v>
+        <v>3052</v>
       </c>
       <c r="D80" t="n">
-        <v>3019</v>
+        <v>3085</v>
       </c>
       <c r="E80" t="n">
         <v>13500</v>
@@ -2290,10 +2290,10 @@
         <v>11497638</v>
       </c>
       <c r="C81" t="n">
-        <v>3019</v>
+        <v>3085</v>
       </c>
       <c r="D81" t="n">
-        <v>3052</v>
+        <v>3118</v>
       </c>
       <c r="E81" t="n">
         <v>13500</v>
@@ -2313,10 +2313,10 @@
         <v>11497639</v>
       </c>
       <c r="C82" t="n">
-        <v>3052</v>
+        <v>3118</v>
       </c>
       <c r="D82" t="n">
-        <v>3085</v>
+        <v>3151</v>
       </c>
       <c r="E82" t="n">
         <v>13500</v>
@@ -2336,10 +2336,10 @@
         <v>11497640</v>
       </c>
       <c r="C83" t="n">
-        <v>3085</v>
+        <v>3151</v>
       </c>
       <c r="D83" t="n">
-        <v>3118</v>
+        <v>3184</v>
       </c>
       <c r="E83" t="n">
         <v>13500</v>
@@ -2359,10 +2359,10 @@
         <v>11497641</v>
       </c>
       <c r="C84" t="n">
-        <v>3118</v>
+        <v>3184</v>
       </c>
       <c r="D84" t="n">
-        <v>3151</v>
+        <v>3217</v>
       </c>
       <c r="E84" t="n">
         <v>13500</v>
@@ -2382,10 +2382,10 @@
         <v>11497642</v>
       </c>
       <c r="C85" t="n">
-        <v>3151</v>
+        <v>3217</v>
       </c>
       <c r="D85" t="n">
-        <v>3184</v>
+        <v>3250</v>
       </c>
       <c r="E85" t="n">
         <v>13500</v>
@@ -2405,10 +2405,10 @@
         <v>11497643</v>
       </c>
       <c r="C86" t="n">
-        <v>3184</v>
+        <v>3250</v>
       </c>
       <c r="D86" t="n">
-        <v>3217</v>
+        <v>3283</v>
       </c>
       <c r="E86" t="n">
         <v>13500</v>
@@ -2428,10 +2428,10 @@
         <v>11497644</v>
       </c>
       <c r="C87" t="n">
-        <v>3217</v>
+        <v>3283</v>
       </c>
       <c r="D87" t="n">
-        <v>3250</v>
+        <v>3316</v>
       </c>
       <c r="E87" t="n">
         <v>13500</v>
@@ -2451,10 +2451,10 @@
         <v>11497654</v>
       </c>
       <c r="C88" t="n">
-        <v>3250</v>
+        <v>3316</v>
       </c>
       <c r="D88" t="n">
-        <v>3283</v>
+        <v>3349</v>
       </c>
       <c r="E88" t="n">
         <v>13500</v>
@@ -2474,10 +2474,10 @@
         <v>11497655</v>
       </c>
       <c r="C89" t="n">
-        <v>3283</v>
+        <v>3349</v>
       </c>
       <c r="D89" t="n">
-        <v>3316</v>
+        <v>3382</v>
       </c>
       <c r="E89" t="n">
         <v>13500</v>
@@ -2497,10 +2497,10 @@
         <v>11497656</v>
       </c>
       <c r="C90" t="n">
-        <v>3316</v>
+        <v>3382</v>
       </c>
       <c r="D90" t="n">
-        <v>3349</v>
+        <v>3415</v>
       </c>
       <c r="E90" t="n">
         <v>13500</v>
@@ -2520,10 +2520,10 @@
         <v>11497681</v>
       </c>
       <c r="C91" t="n">
-        <v>2194</v>
+        <v>2359</v>
       </c>
       <c r="D91" t="n">
-        <v>3382</v>
+        <v>2524</v>
       </c>
       <c r="E91" t="n">
         <v>13500</v>
@@ -2546,7 +2546,7 @@
         <v>1930</v>
       </c>
       <c r="D92" t="n">
-        <v>3415</v>
+        <v>2359</v>
       </c>
       <c r="E92" t="n">
         <v>13500</v>
